--- a/Documents/LionShareSpecifications.xlsx
+++ b/Documents/LionShareSpecifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,9 +15,113 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+  <si>
+    <t>Option Details</t>
+  </si>
+  <si>
+    <t>Open Values</t>
+  </si>
+  <si>
+    <t>Custom Alert</t>
+  </si>
+  <si>
+    <t>System Alert</t>
+  </si>
+  <si>
+    <t>Market Close Position</t>
+  </si>
+  <si>
+    <t>Scrip Code</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Scrip Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put Options </t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>Best Bid Price</t>
+  </si>
+  <si>
+    <t>Best Offer Price</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Strike Price</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Buy Price</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Put/Call</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Scrip Price</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Transaction History</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,14 +150,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +453,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1980</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>1960</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
